--- a/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel_localA_coallesced/resultados.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel_localA_coallesced/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>(1/1)</t>
   </si>
@@ -32,9 +32,6 @@
     <t>(16/16)</t>
   </si>
   <si>
-    <t>(32/32)</t>
-  </si>
-  <si>
     <t>(1/128)</t>
   </si>
   <si>
@@ -68,70 +65,25 @@
     <t>Local Size</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>2048</t>
-  </si>
-  <si>
-    <t>4096</t>
-  </si>
-  <si>
-    <t>8192</t>
-  </si>
-  <si>
     <t>['(2/2)']</t>
   </si>
   <si>
     <t>['(1/1)', '(2/2)']</t>
   </si>
   <si>
-    <t>['(1/1)', '(4/4)']</t>
-  </si>
-  <si>
-    <t>['(2/2)', '(8/8)', '(16/8)']</t>
-  </si>
-  <si>
     <t>['(8/8)']</t>
   </si>
   <si>
-    <t>['(16/8)']</t>
-  </si>
-  <si>
-    <t>['(8/8)', '(16/16)', '(8/16)', '(16/8)']</t>
+    <t>['(8/16)', '(16/8)']</t>
+  </si>
+  <si>
+    <t>['(8/16)']</t>
+  </si>
+  <si>
+    <t>['(64/2)']</t>
   </si>
   <si>
     <t>['(32/4)']</t>
-  </si>
-  <si>
-    <t>['(32/32)']</t>
   </si>
   <si>
     <t>['(16/16)']</t>
@@ -496,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -551,43 +503,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>4.768E-06</v>
+        <v>5.856E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="E2" s="1">
-        <v>5.92E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="F2" s="1">
         <v>6.144000000000001E-06</v>
       </c>
       <c r="G2" s="1">
-        <v>1.8432E-05</v>
+        <v>1.8656E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>0.000114688</v>
+        <v>0.000115712</v>
       </c>
       <c r="I2" s="1">
-        <v>0.000883904</v>
+        <v>0.0008846080000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.00701952</v>
+        <v>0.007019584000000001</v>
       </c>
       <c r="K2" s="1">
-        <v>0.05829660800000001</v>
+        <v>0.05907148800000001</v>
       </c>
       <c r="L2" s="1">
-        <v>0.48679568</v>
+        <v>0.501190656</v>
       </c>
       <c r="M2" s="1">
-        <v>7.868296256000001</v>
+        <v>7.900954496000001</v>
       </c>
       <c r="N2" s="1">
-        <v>107.00910416</v>
+        <v>109.092024416</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -595,43 +547,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>4.32E-06</v>
+        <v>5.344E-06</v>
       </c>
       <c r="C3" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>4.288E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="E3" s="1">
-        <v>4.096E-06</v>
+        <v>5.312E-06</v>
       </c>
       <c r="F3" s="1">
-        <v>5.792000000000001E-06</v>
+        <v>6.272E-06</v>
       </c>
       <c r="G3" s="1">
-        <v>6.976000000000001E-06</v>
+        <v>7.968000000000001E-06</v>
       </c>
       <c r="H3" s="1">
-        <v>2.56E-05</v>
+        <v>2.6592E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.00016896</v>
+        <v>0.000170048</v>
       </c>
       <c r="J3" s="1">
-        <v>0.001312096</v>
+        <v>0.001312992</v>
       </c>
       <c r="K3" s="1">
-        <v>0.010435584</v>
+        <v>0.01193856</v>
       </c>
       <c r="L3" s="1">
-        <v>0.113489088</v>
+        <v>0.114008064</v>
       </c>
       <c r="M3" s="1">
-        <v>1.76616224</v>
+        <v>1.792618528</v>
       </c>
       <c r="N3" s="1">
-        <v>24.322195456</v>
+        <v>24.330085184</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -639,40 +591,40 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>4.16E-06</v>
+        <v>5.792000000000001E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>4.096E-06</v>
+        <v>5.760000000000001E-06</v>
       </c>
       <c r="E4" s="1">
-        <v>4.224000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F4" s="1">
+        <v>5.248E-06</v>
+      </c>
+      <c r="G4" s="1">
         <v>5.28E-06</v>
       </c>
-      <c r="G4" s="1">
-        <v>5.12E-06</v>
-      </c>
       <c r="H4" s="1">
-        <v>9.216000000000001E-06</v>
+        <v>9.984000000000001E-06</v>
       </c>
       <c r="I4" s="1">
         <v>4.096E-05</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000278528</v>
+        <v>0.000277696</v>
       </c>
       <c r="K4" s="1">
-        <v>0.00217088</v>
+        <v>0.002162528</v>
       </c>
       <c r="L4" s="1">
-        <v>0.023045088</v>
+        <v>0.023673856</v>
       </c>
       <c r="M4" s="1">
-        <v>0.394929824</v>
+        <v>0.395128736</v>
       </c>
       <c r="N4" s="1">
-        <v>5.385208832</v>
+        <v>5.387224928</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -680,37 +632,37 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>4.768E-06</v>
+        <v>4.448E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>4.352E-06</v>
+        <v>5.216000000000001E-06</v>
       </c>
       <c r="G5" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.912E-06</v>
       </c>
       <c r="I5" s="1">
-        <v>2.1664E-05</v>
+        <v>2.2528E-05</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000128768</v>
+        <v>0.000128896</v>
       </c>
       <c r="K5" s="1">
-        <v>0.000977152</v>
+        <v>0.0009707520000000001</v>
       </c>
       <c r="L5" s="1">
-        <v>0.007872512</v>
+        <v>0.007837696</v>
       </c>
       <c r="M5" s="1">
-        <v>0.104865792</v>
+        <v>0.105969792</v>
       </c>
       <c r="N5" s="1">
-        <v>1.240761824</v>
+        <v>1.243761504</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -718,66 +670,60 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>4.992000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F6" s="1">
-        <v>4.448E-06</v>
+        <v>5.92E-06</v>
       </c>
       <c r="G6" s="1">
-        <v>5.760000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="H6" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.968000000000001E-06</v>
       </c>
       <c r="I6" s="1">
-        <v>2.3488E-05</v>
+        <v>2.3264E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000124864</v>
+        <v>0.000125952</v>
       </c>
       <c r="K6" s="1">
-        <v>0.001911968</v>
+        <v>0.0009205760000000001</v>
       </c>
       <c r="L6" s="1">
-        <v>0.007311392000000001</v>
+        <v>0.007312352</v>
       </c>
       <c r="M6" s="1">
-        <v>0.0611024</v>
+        <v>0.062679072</v>
       </c>
       <c r="N6" s="1">
-        <v>0.510035648</v>
+        <v>0.5108684800000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1">
-        <v>7.008E-06</v>
-      </c>
-      <c r="G7" s="1">
-        <v>8.864E-06</v>
-      </c>
       <c r="H7" s="1">
-        <v>1.3152E-05</v>
+        <v>2.4576E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>2.3328E-05</v>
+        <v>0.000140096</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000151744</v>
+        <v>0.000932864</v>
       </c>
       <c r="K7" s="1">
-        <v>0.0009564160000000001</v>
+        <v>0.007430144000000001</v>
       </c>
       <c r="L7" s="1">
-        <v>0.007508032</v>
+        <v>0.06797900800000001</v>
       </c>
       <c r="M7" s="1">
-        <v>0.060659936</v>
+        <v>0.5132380160000001</v>
       </c>
       <c r="N7" s="1">
-        <v>0.51175424</v>
+        <v>3.9670976</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -785,51 +731,54 @@
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <v>2.3552E-05</v>
+        <v>8.832000000000001E-06</v>
       </c>
       <c r="I8" s="1">
-        <v>0.000139264</v>
+        <v>2.1536E-05</v>
       </c>
       <c r="J8" s="1">
-        <v>0.00096672</v>
+        <v>0.000187264</v>
       </c>
       <c r="K8" s="1">
-        <v>0.008363008</v>
+        <v>0.003519488</v>
       </c>
       <c r="L8" s="1">
-        <v>0.065716224</v>
+        <v>0.015148032</v>
       </c>
       <c r="M8" s="1">
-        <v>0.50829824</v>
+        <v>0.300553216</v>
       </c>
       <c r="N8" s="1">
-        <v>3.94656912</v>
+        <v>2.593437696</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G9" s="1">
+        <v>7.168000000000001E-06</v>
+      </c>
       <c r="H9" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>1.1264E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>2.1504E-05</v>
+        <v>5.12E-05</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000187456</v>
+        <v>0.000342368</v>
       </c>
       <c r="K9" s="1">
-        <v>0.001543904</v>
+        <v>0.00242768</v>
       </c>
       <c r="L9" s="1">
-        <v>0.015961088</v>
+        <v>0.019940352</v>
       </c>
       <c r="M9" s="1">
-        <v>0.29877936</v>
+        <v>0.153739264</v>
       </c>
       <c r="N9" s="1">
-        <v>2.576387904</v>
+        <v>1.29454064</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -837,57 +786,60 @@
         <v>8</v>
       </c>
       <c r="G10" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>5.888E-06</v>
       </c>
       <c r="H10" s="1">
-        <v>1.1264E-05</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="I10" s="1">
-        <v>5.0432E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0003328</v>
+        <v>0.000129024</v>
       </c>
       <c r="K10" s="1">
-        <v>0.002423808</v>
+        <v>0.001120256</v>
       </c>
       <c r="L10" s="1">
-        <v>0.018967488</v>
+        <v>0.010353664</v>
       </c>
       <c r="M10" s="1">
-        <v>0.152826016</v>
+        <v>0.1589272</v>
       </c>
       <c r="N10" s="1">
-        <v>1.285316576</v>
+        <v>1.322252736</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F11" s="1">
+        <v>5.12E-06</v>
+      </c>
       <c r="G11" s="1">
-        <v>5.12E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="H11" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>8.32E-06</v>
       </c>
       <c r="I11" s="1">
-        <v>2.016E-05</v>
+        <v>2.9696E-05</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000125952</v>
+        <v>0.000167968</v>
       </c>
       <c r="K11" s="1">
-        <v>0.00111616</v>
+        <v>0.00124928</v>
       </c>
       <c r="L11" s="1">
-        <v>0.010377216</v>
+        <v>0.009110112</v>
       </c>
       <c r="M11" s="1">
-        <v>0.1564416</v>
+        <v>0.080082816</v>
       </c>
       <c r="N11" s="1">
-        <v>1.303404544</v>
+        <v>0.703135552</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -898,60 +850,63 @@
         <v>5.12E-06</v>
       </c>
       <c r="G12" s="1">
-        <v>5.12E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="H12" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="I12" s="1">
-        <v>2.9536E-05</v>
+        <v>2.1504E-05</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000166912</v>
+        <v>0.00011776</v>
       </c>
       <c r="K12" s="1">
-        <v>0.001900544</v>
+        <v>0.0008888320000000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0.00911472</v>
+        <v>0.00713728</v>
       </c>
       <c r="M12" s="1">
-        <v>0.07892352000000001</v>
+        <v>0.082288608</v>
       </c>
       <c r="N12" s="1">
-        <v>0.698606464</v>
+        <v>0.7661215680000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E13" s="1">
+        <v>5.088E-06</v>
+      </c>
       <c r="F13" s="1">
-        <v>5.088E-06</v>
+        <v>4.832E-06</v>
       </c>
       <c r="G13" s="1">
-        <v>5.12E-06</v>
+        <v>5.376000000000001E-06</v>
       </c>
       <c r="H13" s="1">
-        <v>6.912E-06</v>
+        <v>8.032E-06</v>
       </c>
       <c r="I13" s="1">
-        <v>1.9808E-05</v>
+        <v>2.3552E-05</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000116672</v>
+        <v>0.000129472</v>
       </c>
       <c r="K13" s="1">
-        <v>0.000887808</v>
+        <v>0.0009758400000000001</v>
       </c>
       <c r="L13" s="1">
-        <v>0.007153472</v>
+        <v>0.007759456000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>0.08312320000000001</v>
+        <v>0.068281888</v>
       </c>
       <c r="N13" s="1">
-        <v>0.7683983360000001</v>
+        <v>0.739246144</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -959,69 +914,34 @@
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>5.184000000000001E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="F14" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="G14" s="1">
-        <v>5.12E-06</v>
+        <v>5.952000000000001E-06</v>
       </c>
       <c r="H14" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="I14" s="1">
-        <v>2.3424E-05</v>
+        <v>2.192E-05</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000128928</v>
+        <v>0.000121344</v>
       </c>
       <c r="K14" s="1">
-        <v>0.0009744640000000001</v>
+        <v>0.000916192</v>
       </c>
       <c r="L14" s="1">
-        <v>0.008728864000000001</v>
+        <v>0.007277376</v>
       </c>
       <c r="M14" s="1">
-        <v>0.06781952000000001</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>0.7339570240000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4.096E-06</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5.12E-06</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5.024000000000001E-06</v>
-      </c>
-      <c r="H15" s="1">
-        <v>6.144000000000001E-06</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2.1504E-05</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.000119808</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.000915456</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.007274272</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.067760128</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.7293184</v>
+        <v>0.7349909760000001</v>
       </c>
     </row>
   </sheetData>
@@ -1042,195 +962,195 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
+      <c r="B2" s="1">
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>4.32E-06</v>
+        <v>5.344E-06</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
+      <c r="B3" s="1">
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
+      <c r="B4" s="1">
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>4.096E-06</v>
+        <v>4.448E-06</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
+      <c r="B5" s="1">
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>4.096E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
+      <c r="B6" s="1">
+        <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>4.352E-06</v>
+        <v>4.832E-06</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
+      <c r="B7" s="1">
+        <v>64</v>
       </c>
       <c r="C7" s="1">
-        <v>5.024000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
+      <c r="B8" s="1">
+        <v>128</v>
       </c>
       <c r="C8" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.912E-06</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
+      <c r="B9" s="1">
+        <v>256</v>
       </c>
       <c r="C9" s="1">
-        <v>1.9808E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
+      <c r="B10" s="1">
+        <v>512</v>
       </c>
       <c r="C10" s="1">
-        <v>0.000116672</v>
+        <v>0.00011776</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
+      <c r="B11" s="1">
+        <v>1024</v>
       </c>
       <c r="C11" s="1">
-        <v>0.000887808</v>
+        <v>0.0008888320000000001</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
+      <c r="B12" s="1">
+        <v>2048</v>
       </c>
       <c r="C12" s="1">
-        <v>0.007153472</v>
+        <v>0.00713728</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
+      <c r="B13" s="1">
+        <v>4096</v>
       </c>
       <c r="C13" s="1">
-        <v>0.060659936</v>
+        <v>0.062679072</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
+      <c r="B14" s="1">
+        <v>8192</v>
       </c>
       <c r="C14" s="1">
-        <v>0.510035648</v>
+        <v>0.5108684800000001</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel_localA_coallesced/resultados.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel_localA_coallesced/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>(1/1)</t>
   </si>
@@ -68,19 +68,22 @@
     <t>['(2/2)']</t>
   </si>
   <si>
-    <t>['(1/1)', '(2/2)']</t>
+    <t>['(1/1)', '(4/4)']</t>
   </si>
   <si>
     <t>['(8/8)']</t>
   </si>
   <si>
-    <t>['(8/16)', '(16/8)']</t>
-  </si>
-  <si>
-    <t>['(8/16)']</t>
-  </si>
-  <si>
-    <t>['(64/2)']</t>
+    <t>['(2/2)', '(4/4)', '(8/8)', '(16/16)', '(8/16)', '(16/8)']</t>
+  </si>
+  <si>
+    <t>['(4/4)', '(8/8)', '(32/4)', '(8/16)', '(16/8)']</t>
+  </si>
+  <si>
+    <t>['(32/4)', '(8/16)', '(16/8)']</t>
+  </si>
+  <si>
+    <t>['(8/8)', '(32/4)']</t>
   </si>
   <si>
     <t>['(32/4)']</t>
@@ -503,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5.856E-06</v>
+        <v>5.184000000000001E-06</v>
       </c>
       <c r="C2" s="1">
         <v>5.12E-06</v>
@@ -512,34 +515,34 @@
         <v>5.12E-06</v>
       </c>
       <c r="E2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.176000000000001E-06</v>
       </c>
       <c r="F2" s="1">
         <v>6.144000000000001E-06</v>
       </c>
       <c r="G2" s="1">
-        <v>1.8656E-05</v>
+        <v>1.8432E-05</v>
       </c>
       <c r="H2" s="1">
         <v>0.000115712</v>
       </c>
       <c r="I2" s="1">
-        <v>0.0008846080000000001</v>
+        <v>0.000884736</v>
       </c>
       <c r="J2" s="1">
-        <v>0.007019584000000001</v>
+        <v>0.00701952</v>
       </c>
       <c r="K2" s="1">
-        <v>0.05907148800000001</v>
+        <v>0.067995392</v>
       </c>
       <c r="L2" s="1">
-        <v>0.501190656</v>
+        <v>0.5065728</v>
       </c>
       <c r="M2" s="1">
-        <v>7.900954496000001</v>
+        <v>7.922198304</v>
       </c>
       <c r="N2" s="1">
-        <v>109.092024416</v>
+        <v>104.591741696</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -547,43 +550,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>5.344E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="C3" s="1">
-        <v>5.12E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>5.12E-06</v>
+        <v>5.408000000000001E-06</v>
       </c>
       <c r="E3" s="1">
-        <v>5.312E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F3" s="1">
-        <v>6.272E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="G3" s="1">
-        <v>7.968000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="H3" s="1">
-        <v>2.6592E-05</v>
+        <v>2.56E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.000170048</v>
+        <v>0.000170208</v>
       </c>
       <c r="J3" s="1">
-        <v>0.001312992</v>
+        <v>0.001313792</v>
       </c>
       <c r="K3" s="1">
-        <v>0.01193856</v>
+        <v>0.010436736</v>
       </c>
       <c r="L3" s="1">
-        <v>0.114008064</v>
+        <v>0.10811568</v>
       </c>
       <c r="M3" s="1">
-        <v>1.792618528</v>
+        <v>1.71481808</v>
       </c>
       <c r="N3" s="1">
-        <v>24.330085184</v>
+        <v>23.314060288</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -591,40 +594,40 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>5.792000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>5.760000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="E4" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>5.248E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>5.28E-06</v>
+        <v>6.016000000000001E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>9.984000000000001E-06</v>
+        <v>1.0016E-05</v>
       </c>
       <c r="I4" s="1">
-        <v>4.096E-05</v>
+        <v>4.1984E-05</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000277696</v>
+        <v>0.00027856</v>
       </c>
       <c r="K4" s="1">
-        <v>0.002162528</v>
+        <v>0.002171904</v>
       </c>
       <c r="L4" s="1">
-        <v>0.023673856</v>
+        <v>0.02229792</v>
       </c>
       <c r="M4" s="1">
-        <v>0.395128736</v>
+        <v>0.379007872</v>
       </c>
       <c r="N4" s="1">
-        <v>5.387224928</v>
+        <v>5.167889408000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -632,37 +635,37 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>4.448E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="E5" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>5.216000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>5.12E-06</v>
+        <v>5.312E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>6.912E-06</v>
+        <v>7.072E-06</v>
       </c>
       <c r="I5" s="1">
-        <v>2.2528E-05</v>
+        <v>2.3552E-05</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000128896</v>
+        <v>0.000129024</v>
       </c>
       <c r="K5" s="1">
-        <v>0.0009707520000000001</v>
+        <v>0.000978144</v>
       </c>
       <c r="L5" s="1">
-        <v>0.007837696</v>
+        <v>0.007866336</v>
       </c>
       <c r="M5" s="1">
-        <v>0.105969792</v>
+        <v>0.101105344</v>
       </c>
       <c r="N5" s="1">
-        <v>1.243761504</v>
+        <v>1.190127616</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -673,31 +676,31 @@
         <v>5.12E-06</v>
       </c>
       <c r="F6" s="1">
-        <v>5.92E-06</v>
+        <v>5.152E-06</v>
       </c>
       <c r="G6" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>5.856E-06</v>
       </c>
       <c r="H6" s="1">
-        <v>7.968000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="I6" s="1">
-        <v>2.3264E-05</v>
+        <v>2.3552E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000125952</v>
+        <v>0.000126144</v>
       </c>
       <c r="K6" s="1">
         <v>0.0009205760000000001</v>
       </c>
       <c r="L6" s="1">
-        <v>0.007312352</v>
+        <v>0.007308288</v>
       </c>
       <c r="M6" s="1">
-        <v>0.062679072</v>
+        <v>0.05947257600000001</v>
       </c>
       <c r="N6" s="1">
-        <v>0.5108684800000001</v>
+        <v>0.495282176</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -708,22 +711,22 @@
         <v>2.4576E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>0.000140096</v>
+        <v>0.000140288</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000932864</v>
+        <v>0.0009673920000000001</v>
       </c>
       <c r="K7" s="1">
-        <v>0.007430144000000001</v>
+        <v>0.007433088000000001</v>
       </c>
       <c r="L7" s="1">
-        <v>0.06797900800000001</v>
+        <v>0.061905696</v>
       </c>
       <c r="M7" s="1">
-        <v>0.5132380160000001</v>
+        <v>0.485084128</v>
       </c>
       <c r="N7" s="1">
-        <v>3.9670976</v>
+        <v>3.784242208</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -731,25 +734,25 @@
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <v>8.832000000000001E-06</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="I8" s="1">
-        <v>2.1536E-05</v>
+        <v>2.1824E-05</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000187264</v>
+        <v>0.000186368</v>
       </c>
       <c r="K8" s="1">
-        <v>0.003519488</v>
+        <v>0.001534976</v>
       </c>
       <c r="L8" s="1">
-        <v>0.015148032</v>
+        <v>0.015186848</v>
       </c>
       <c r="M8" s="1">
-        <v>0.300553216</v>
+        <v>0.284965952</v>
       </c>
       <c r="N8" s="1">
-        <v>2.593437696</v>
+        <v>2.46401024</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -760,25 +763,25 @@
         <v>7.168000000000001E-06</v>
       </c>
       <c r="H9" s="1">
-        <v>1.1264E-05</v>
+        <v>1.2E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>5.12E-05</v>
+        <v>5.2224E-05</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000342368</v>
+        <v>0.00033696</v>
       </c>
       <c r="K9" s="1">
-        <v>0.00242768</v>
+        <v>0.002419424</v>
       </c>
       <c r="L9" s="1">
-        <v>0.019940352</v>
+        <v>0.01798144</v>
       </c>
       <c r="M9" s="1">
-        <v>0.153739264</v>
+        <v>0.14635424</v>
       </c>
       <c r="N9" s="1">
-        <v>1.29454064</v>
+        <v>1.234184192</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -786,28 +789,28 @@
         <v>8</v>
       </c>
       <c r="G10" s="1">
-        <v>5.888E-06</v>
+        <v>5.504E-06</v>
       </c>
       <c r="H10" s="1">
         <v>7.168000000000001E-06</v>
       </c>
       <c r="I10" s="1">
-        <v>2.048E-05</v>
+        <v>2.1504E-05</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000129024</v>
+        <v>0.000128</v>
       </c>
       <c r="K10" s="1">
-        <v>0.001120256</v>
+        <v>0.001119232</v>
       </c>
       <c r="L10" s="1">
-        <v>0.010353664</v>
+        <v>0.010487904</v>
       </c>
       <c r="M10" s="1">
-        <v>0.1589272</v>
+        <v>0.149439232</v>
       </c>
       <c r="N10" s="1">
-        <v>1.322252736</v>
+        <v>1.247092384</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -815,31 +818,31 @@
         <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>5.12E-06</v>
+        <v>6.912E-06</v>
       </c>
       <c r="G11" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>5.472E-06</v>
       </c>
       <c r="H11" s="1">
-        <v>8.32E-06</v>
+        <v>8.928E-06</v>
       </c>
       <c r="I11" s="1">
-        <v>2.9696E-05</v>
+        <v>2.9472E-05</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000167968</v>
+        <v>0.000167936</v>
       </c>
       <c r="K11" s="1">
-        <v>0.00124928</v>
+        <v>0.001250048</v>
       </c>
       <c r="L11" s="1">
-        <v>0.009110112</v>
+        <v>0.009115680000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>0.080082816</v>
+        <v>0.075418624</v>
       </c>
       <c r="N11" s="1">
-        <v>0.703135552</v>
+        <v>0.66712576</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -850,28 +853,28 @@
         <v>5.12E-06</v>
       </c>
       <c r="G12" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="H12" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.072E-06</v>
       </c>
       <c r="I12" s="1">
-        <v>2.1504E-05</v>
+        <v>2.064E-05</v>
       </c>
       <c r="J12" s="1">
-        <v>0.00011776</v>
+        <v>0.000116736</v>
       </c>
       <c r="K12" s="1">
-        <v>0.0008888320000000001</v>
+        <v>0.0008884800000000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0.00713728</v>
+        <v>0.007163904</v>
       </c>
       <c r="M12" s="1">
-        <v>0.082288608</v>
+        <v>0.07864902400000001</v>
       </c>
       <c r="N12" s="1">
-        <v>0.7661215680000001</v>
+        <v>0.728957952</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -879,34 +882,34 @@
         <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>5.088E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F13" s="1">
-        <v>4.832E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="G13" s="1">
-        <v>5.376000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="H13" s="1">
-        <v>8.032E-06</v>
+        <v>7.328000000000001E-06</v>
       </c>
       <c r="I13" s="1">
         <v>2.3552E-05</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000129472</v>
+        <v>0.000130016</v>
       </c>
       <c r="K13" s="1">
-        <v>0.0009758400000000001</v>
+        <v>0.0009751680000000001</v>
       </c>
       <c r="L13" s="1">
-        <v>0.007759456000000001</v>
+        <v>0.007759872</v>
       </c>
       <c r="M13" s="1">
-        <v>0.068281888</v>
+        <v>0.06513152</v>
       </c>
       <c r="N13" s="1">
-        <v>0.739246144</v>
+        <v>0.701629664</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -914,34 +917,34 @@
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>5.088E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F14" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="G14" s="1">
-        <v>5.952000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="H14" s="1">
         <v>7.168000000000001E-06</v>
       </c>
       <c r="I14" s="1">
-        <v>2.192E-05</v>
+        <v>2.1536E-05</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000121344</v>
+        <v>0.000120896</v>
       </c>
       <c r="K14" s="1">
         <v>0.000916192</v>
       </c>
       <c r="L14" s="1">
-        <v>0.007277376</v>
+        <v>0.007275520000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>0.06720000000000001</v>
+        <v>0.063696768</v>
       </c>
       <c r="N14" s="1">
-        <v>0.7349909760000001</v>
+        <v>0.69283328</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +982,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>5.344E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -1007,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>4.448E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -1021,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>5.088E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -1035,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>4.832E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -1052,7 +1055,7 @@
         <v>5.12E-06</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1063,10 +1066,10 @@
         <v>128</v>
       </c>
       <c r="C8" s="1">
-        <v>6.912E-06</v>
+        <v>7.072E-06</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1077,10 +1080,10 @@
         <v>256</v>
       </c>
       <c r="C9" s="1">
-        <v>2.048E-05</v>
+        <v>2.064E-05</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1091,10 +1094,10 @@
         <v>512</v>
       </c>
       <c r="C10" s="1">
-        <v>0.00011776</v>
+        <v>0.000116736</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1105,10 +1108,10 @@
         <v>1024</v>
       </c>
       <c r="C11" s="1">
-        <v>0.0008888320000000001</v>
+        <v>0.0008884800000000001</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1119,10 +1122,10 @@
         <v>2048</v>
       </c>
       <c r="C12" s="1">
-        <v>0.00713728</v>
+        <v>0.007163904</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1133,10 +1136,10 @@
         <v>4096</v>
       </c>
       <c r="C13" s="1">
-        <v>0.062679072</v>
+        <v>0.05947257600000001</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1147,10 +1150,10 @@
         <v>8192</v>
       </c>
       <c r="C14" s="1">
-        <v>0.5108684800000001</v>
+        <v>0.495282176</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
